--- a/data/TEMPLATE_saldo.XLSX
+++ b/data/TEMPLATE_saldo.XLSX
@@ -25,9 +25,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Číslo dokladu</t>
-  </si>
-  <si>
-    <t>Dátum zadania</t>
   </si>
   <si>
     <t>Dátum účtovania</t>
@@ -62,6 +59,9 @@
   <si>
     <t>Zmluvný účet číslo:</t>
   </si>
+  <si>
+    <t>Dátum vystavenia/Pripísania platby</t>
+  </si>
 </sst>
 </file>
 
@@ -88,7 +88,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FF009999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,11 +133,11 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -145,6 +145,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF009999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -158,36 +163,29 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285914</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76360</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1162050" cy="1190625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Obrázok 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr="Picture"/>
+        <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="0"/>
-          <a:ext cx="1171739" cy="1143160"/>
+          <a:off x="4362451" y="0"/>
+          <a:ext cx="1162050" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -195,7 +193,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -465,14 +463,14 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="5" width="10.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="1" customWidth="1"/>
@@ -484,58 +482,58 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -554,7 +552,7 @@
       <c r="E11" s="2"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
-        <f>H10+G11</f>
+        <f t="shared" ref="H11:H42" si="0">H10+G11</f>
         <v>0</v>
       </c>
     </row>
@@ -564,7 +562,7 @@
       <c r="E12" s="2"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <f>H11+G12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -574,7 +572,7 @@
       <c r="E13" s="2"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
-        <f>H12+G13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -584,7 +582,7 @@
       <c r="E14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <f>H13+G14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -594,7 +592,7 @@
       <c r="E15" s="2"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <f>H14+G15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -604,7 +602,7 @@
       <c r="E16" s="2"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <f>H15+G16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -614,7 +612,7 @@
       <c r="E17" s="2"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <f>H16+G17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -624,7 +622,7 @@
       <c r="E18" s="2"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <f>H17+G18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -634,7 +632,7 @@
       <c r="E19" s="2"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <f>H18+G19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -644,7 +642,7 @@
       <c r="E20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <f>H19+G20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -654,7 +652,7 @@
       <c r="E21" s="2"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <f>H20+G21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -664,7 +662,7 @@
       <c r="E22" s="2"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <f>H21+G22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -674,7 +672,7 @@
       <c r="E23" s="2"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <f>H22+G23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -684,7 +682,7 @@
       <c r="E24" s="2"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <f>H23+G24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -694,7 +692,7 @@
       <c r="E25" s="2"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
-        <f>H24+G25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -704,7 +702,7 @@
       <c r="E26" s="2"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <f>H25+G26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -714,7 +712,7 @@
       <c r="E27" s="2"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <f>H26+G27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -724,7 +722,7 @@
       <c r="E28" s="2"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <f>H27+G28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -734,7 +732,7 @@
       <c r="E29" s="2"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <f>H28+G29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -744,7 +742,7 @@
       <c r="E30" s="2"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <f>H29+G30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -754,7 +752,7 @@
       <c r="E31" s="2"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
-        <f>H30+G31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -764,7 +762,7 @@
       <c r="E32" s="2"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
-        <f>H31+G32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -774,7 +772,7 @@
       <c r="E33" s="2"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3">
-        <f>H32+G33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -784,7 +782,7 @@
       <c r="E34" s="2"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3">
-        <f>H33+G34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -794,7 +792,7 @@
       <c r="E35" s="2"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3">
-        <f>H34+G35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -804,7 +802,7 @@
       <c r="E36" s="2"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3">
-        <f>H35+G36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -814,7 +812,7 @@
       <c r="E37" s="2"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <f>H36+G37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -824,7 +822,7 @@
       <c r="E38" s="2"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3">
-        <f>H37+G38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -834,7 +832,7 @@
       <c r="E39" s="2"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <f>H38+G39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -844,7 +842,7 @@
       <c r="E40" s="2"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3">
-        <f>H39+G40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -854,7 +852,7 @@
       <c r="E41" s="2"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3">
-        <f>H40+G41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -864,7 +862,7 @@
       <c r="E42" s="2"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
-        <f>H41+G42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -874,7 +872,7 @@
       <c r="E43" s="2"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3">
-        <f>H42+G43</f>
+        <f t="shared" ref="H43:H74" si="1">H42+G43</f>
         <v>0</v>
       </c>
     </row>
@@ -884,7 +882,7 @@
       <c r="E44" s="2"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3">
-        <f>H43+G44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -894,7 +892,7 @@
       <c r="E45" s="2"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3">
-        <f>H44+G45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -904,7 +902,7 @@
       <c r="E46" s="2"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
-        <f>H45+G46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -914,7 +912,7 @@
       <c r="E47" s="2"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3">
-        <f>H46+G47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -924,7 +922,7 @@
       <c r="E48" s="2"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3">
-        <f>H47+G48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -934,7 +932,7 @@
       <c r="E49" s="2"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3">
-        <f>H48+G49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -944,7 +942,7 @@
       <c r="E50" s="2"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3">
-        <f>H49+G50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -954,7 +952,7 @@
       <c r="E51" s="2"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3">
-        <f>H50+G51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -964,7 +962,7 @@
       <c r="E52" s="2"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3">
-        <f>H51+G52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -974,7 +972,7 @@
       <c r="E53" s="2"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3">
-        <f>H52+G53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -984,7 +982,7 @@
       <c r="E54" s="2"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3">
-        <f>H53+G54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -994,7 +992,7 @@
       <c r="E55" s="2"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3">
-        <f>H54+G55</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1004,7 +1002,7 @@
       <c r="E56" s="2"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3">
-        <f>H55+G56</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1014,7 +1012,7 @@
       <c r="E57" s="2"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3">
-        <f>H56+G57</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1024,7 +1022,7 @@
       <c r="E58" s="2"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3">
-        <f>H57+G58</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1034,7 +1032,7 @@
       <c r="E59" s="2"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3">
-        <f>H58+G59</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1044,7 +1042,7 @@
       <c r="E60" s="2"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3">
-        <f>H59+G60</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1054,7 +1052,7 @@
       <c r="E61" s="2"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3">
-        <f>H60+G61</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1064,7 +1062,7 @@
       <c r="E62" s="2"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3">
-        <f>H61+G62</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1074,7 +1072,7 @@
       <c r="E63" s="2"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3">
-        <f>H62+G63</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1084,7 +1082,7 @@
       <c r="E64" s="2"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3">
-        <f>H63+G64</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1094,7 +1092,7 @@
       <c r="E65" s="2"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3">
-        <f>H64+G65</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1104,7 +1102,7 @@
       <c r="E66" s="2"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3">
-        <f>H65+G66</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1114,7 +1112,7 @@
       <c r="E67" s="2"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3">
-        <f>H66+G67</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1124,7 +1122,7 @@
       <c r="E68" s="2"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3">
-        <f>H67+G68</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1134,7 +1132,7 @@
       <c r="E69" s="2"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3">
-        <f>H68+G69</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1144,7 +1142,7 @@
       <c r="E70" s="2"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3">
-        <f>H69+G70</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1154,7 +1152,7 @@
       <c r="E71" s="2"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3">
-        <f>H70+G71</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1164,7 +1162,7 @@
       <c r="E72" s="2"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3">
-        <f>H71+G72</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1174,7 +1172,7 @@
       <c r="E73" s="2"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3">
-        <f>H72+G73</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1184,7 +1182,7 @@
       <c r="E74" s="2"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3">
-        <f>H73+G74</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1194,7 +1192,7 @@
       <c r="E75" s="2"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3">
-        <f>H74+G75</f>
+        <f t="shared" ref="H75:H106" si="2">H74+G75</f>
         <v>0</v>
       </c>
     </row>
@@ -1204,7 +1202,7 @@
       <c r="E76" s="2"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3">
-        <f>H75+G76</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1212,7 @@
       <c r="E77" s="2"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3">
-        <f>H76+G77</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1224,7 +1222,7 @@
       <c r="E78" s="2"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3">
-        <f>H77+G78</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1234,7 +1232,7 @@
       <c r="E79" s="2"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3">
-        <f>H78+G79</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/data/TEMPLATE_saldo.XLSX
+++ b/data/TEMPLATE_saldo.XLSX
@@ -39,9 +39,6 @@
     <t>Zostatok</t>
   </si>
   <si>
-    <t>číslo Faktúry</t>
-  </si>
-  <si>
     <t>Typ dokladu</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Dátum vystavenia/Pripísania platby</t>
+  </si>
+  <si>
+    <t>Číslo Faktúry</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -482,30 +482,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>3</v>
@@ -1192,7 +1192,7 @@
       <c r="E75" s="2"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3">
-        <f t="shared" ref="H75:H106" si="2">H74+G75</f>
+        <f t="shared" ref="H75:H79" si="2">H74+G75</f>
         <v>0</v>
       </c>
     </row>

--- a/data/TEMPLATE_saldo.XLSX
+++ b/data/TEMPLATE_saldo.XLSX
@@ -463,7 +463,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/data/TEMPLATE_saldo.XLSX
+++ b/data/TEMPLATE_saldo.XLSX
@@ -57,10 +57,10 @@
     <t>Zmluvný účet číslo:</t>
   </si>
   <si>
-    <t>Dátum vystavenia/Pripísania platby</t>
+    <t>Číslo Faktúry</t>
   </si>
   <si>
-    <t>Číslo Faktúry</t>
+    <t>Dátum vystavenia / Pripísania platby</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -510,15 +510,15 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>1</v>

--- a/data/TEMPLATE_saldo.XLSX
+++ b/data/TEMPLATE_saldo.XLSX
@@ -463,7 +463,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
